--- a/artfynd/A 43913-2021.xlsx
+++ b/artfynd/A 43913-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY11"/>
+  <dimension ref="A1:AY17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1883,6 +1883,725 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112128498</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90018</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1339</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Brandticka</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pycnoporellus fulgens</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Skansberg, Ö om, Srm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>657133.965947984</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6571270.665650261</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Botkyrka</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Botkyrka</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På granlåga. En del årsfärska dödade granar av granbarkborre. Gott om död ved i form av torrträd och lågor av gran.</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112128627</v>
+      </c>
+      <c r="B13" t="n">
+        <v>90087</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Skansberg, Ö om, Srm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>657181.8354338486</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6571192.256437058</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Botkyrka</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Botkyrka</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På nedre delen av torrgran.</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112128551</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Skansberg, Ö om, Srm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>657162.1501835568</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6571271.319579108</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Botkyrka</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Botkyrka</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112128530</v>
+      </c>
+      <c r="B15" t="n">
+        <v>89802</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5420</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Grovticka</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Phaeolus schweinitzii</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Fr.) Pat.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Skansberg, Ö om, Srm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>657143.932178961</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6571277.734310649</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Botkyrka</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Botkyrka</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>På högstubbe av tall.</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112128573</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90668</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>788</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Gul taggsvamp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hydnellum geogenium</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Fr.) Banker</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Skansberg, Ö om, Srm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>657133.5412061054</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6571218.932669931</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Botkyrka</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Botkyrka</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112128708</v>
+      </c>
+      <c r="B17" t="n">
+        <v>90687</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Skansberg, Ö om, Srm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>657216.3353243669</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6571312.987947896</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Botkyrka</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Botkyrka</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Bo Törnquist</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 43913-2021.xlsx
+++ b/artfynd/A 43913-2021.xlsx
@@ -1885,10 +1885,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112128498</v>
+        <v>112128627</v>
       </c>
       <c r="B12" t="n">
-        <v>90018</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1901,21 +1901,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1339</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1928,10 +1928,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>657133.965947984</v>
+        <v>657181.8354338486</v>
       </c>
       <c r="R12" t="n">
-        <v>6571270.665650261</v>
+        <v>6571192.256437058</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>På granlåga. En del årsfärska dödade granar av granbarkborre. Gott om död ved i form av torrträd och lågor av gran.</t>
+          <t>På nedre delen av torrgran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2006,10 +2006,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112128627</v>
+        <v>112128498</v>
       </c>
       <c r="B13" t="n">
-        <v>90087</v>
+        <v>90018</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2022,21 +2022,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>1339</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2049,10 +2049,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>657181.8354338486</v>
+        <v>657133.965947984</v>
       </c>
       <c r="R13" t="n">
-        <v>6571192.256437058</v>
+        <v>6571270.665650261</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>På nedre delen av torrgran.</t>
+          <t>På granlåga. En del årsfärska dödade granar av granbarkborre. Gott om död ved i form av torrträd och lågor av gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 43913-2021.xlsx
+++ b/artfynd/A 43913-2021.xlsx
@@ -1885,10 +1885,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112128627</v>
+        <v>112128551</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>90666</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1901,21 +1901,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1928,10 +1928,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>657181.8354338486</v>
+        <v>657162.1501835568</v>
       </c>
       <c r="R12" t="n">
-        <v>6571192.256437058</v>
+        <v>6571271.319579108</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1974,11 +1974,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På nedre delen av torrgran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2006,10 +2001,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112128498</v>
+        <v>112128530</v>
       </c>
       <c r="B13" t="n">
-        <v>90018</v>
+        <v>89802</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2022,21 +2017,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1339</v>
+        <v>5420</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2049,10 +2044,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>657133.965947984</v>
+        <v>657143.932178961</v>
       </c>
       <c r="R13" t="n">
-        <v>6571270.665650261</v>
+        <v>6571277.734310649</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2099,7 +2094,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>På granlåga. En del årsfärska dödade granar av granbarkborre. Gott om död ved i form av torrträd och lågor av gran.</t>
+          <t>På högstubbe av tall.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2127,10 +2122,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112128551</v>
+        <v>112128498</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>90018</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2143,21 +2138,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>1339</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2170,10 +2165,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>657162.1501835568</v>
+        <v>657133.965947984</v>
       </c>
       <c r="R14" t="n">
-        <v>6571271.319579108</v>
+        <v>6571270.665650261</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2216,6 +2211,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På granlåga. En del årsfärska dödade granar av granbarkborre. Gott om död ved i form av torrträd och lågor av gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2243,10 +2243,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112128530</v>
+        <v>112128573</v>
       </c>
       <c r="B15" t="n">
-        <v>89802</v>
+        <v>90668</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2255,25 +2255,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5420</v>
+        <v>788</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2286,10 +2286,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>657143.932178961</v>
+        <v>657133.5412061054</v>
       </c>
       <c r="R15" t="n">
-        <v>6571277.734310649</v>
+        <v>6571218.932669931</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2332,11 +2332,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>På högstubbe av tall.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2364,10 +2359,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112128573</v>
+        <v>112128627</v>
       </c>
       <c r="B16" t="n">
-        <v>90668</v>
+        <v>90087</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2376,25 +2371,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>788</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2407,10 +2402,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>657133.5412061054</v>
+        <v>657181.8354338486</v>
       </c>
       <c r="R16" t="n">
-        <v>6571218.932669931</v>
+        <v>6571192.256437058</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2453,6 +2448,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>På nedre delen av torrgran.</t>
         </is>
       </c>
       <c r="AD16" t="b">

--- a/artfynd/A 43913-2021.xlsx
+++ b/artfynd/A 43913-2021.xlsx
@@ -1928,10 +1928,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>657162.1501835568</v>
+        <v>657162</v>
       </c>
       <c r="R12" t="n">
-        <v>6571271.319579108</v>
+        <v>6571271</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1961,19 +1961,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2001,10 +1991,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112128530</v>
+        <v>112128573</v>
       </c>
       <c r="B13" t="n">
-        <v>89802</v>
+        <v>90668</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2013,25 +2003,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5420</v>
+        <v>788</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2044,10 +2034,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>657143.932178961</v>
+        <v>657134</v>
       </c>
       <c r="R13" t="n">
-        <v>6571277.734310649</v>
+        <v>6571219</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2077,24 +2067,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>På högstubbe av tall.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2122,10 +2097,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112128498</v>
+        <v>112128627</v>
       </c>
       <c r="B14" t="n">
-        <v>90018</v>
+        <v>90087</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2138,21 +2113,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1339</v>
+        <v>3298</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2165,10 +2140,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>657133.965947984</v>
+        <v>657182</v>
       </c>
       <c r="R14" t="n">
-        <v>6571270.665650261</v>
+        <v>6571192</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2198,24 +2173,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>På granlåga. En del årsfärska dödade granar av granbarkborre. Gott om död ved i form av torrträd och lågor av gran.</t>
+          <t>På nedre delen av torrgran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2243,10 +2208,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112128573</v>
+        <v>112128498</v>
       </c>
       <c r="B15" t="n">
-        <v>90668</v>
+        <v>90018</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2255,25 +2220,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>788</v>
+        <v>1339</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2286,10 +2251,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>657133.5412061054</v>
+        <v>657134</v>
       </c>
       <c r="R15" t="n">
-        <v>6571218.932669931</v>
+        <v>6571271</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2319,19 +2284,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>På granlåga. En del årsfärska dödade granar av granbarkborre. Gott om död ved i form av torrträd och lågor av gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2359,10 +2319,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112128627</v>
+        <v>112128530</v>
       </c>
       <c r="B16" t="n">
-        <v>90087</v>
+        <v>89802</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2375,21 +2335,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>5420</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2402,10 +2362,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>657181.8354338486</v>
+        <v>657144</v>
       </c>
       <c r="R16" t="n">
-        <v>6571192.256437058</v>
+        <v>6571278</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2435,24 +2395,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>På nedre delen av torrgran.</t>
+          <t>På högstubbe av tall.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2531,10 +2481,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>657216.3353243669</v>
+        <v>657216</v>
       </c>
       <c r="R17" t="n">
-        <v>6571312.987947896</v>
+        <v>6571313</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2564,19 +2514,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">

--- a/artfynd/A 43913-2021.xlsx
+++ b/artfynd/A 43913-2021.xlsx
@@ -1885,10 +1885,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112128551</v>
+        <v>112128530</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>89936</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1901,21 +1901,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>5420</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1928,10 +1928,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>657162</v>
+        <v>657144</v>
       </c>
       <c r="R12" t="n">
-        <v>6571271</v>
+        <v>6571278</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1964,6 +1964,11 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På högstubbe av tall.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1991,10 +1996,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112128573</v>
+        <v>112128551</v>
       </c>
       <c r="B13" t="n">
-        <v>90668</v>
+        <v>90800</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2003,25 +2008,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>788</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2034,10 +2039,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>657134</v>
+        <v>657162</v>
       </c>
       <c r="R13" t="n">
-        <v>6571219</v>
+        <v>6571271</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2097,10 +2102,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112128627</v>
+        <v>112128708</v>
       </c>
       <c r="B14" t="n">
-        <v>90087</v>
+        <v>90821</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2113,25 +2118,33 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3298</v>
+        <v>5964</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2140,10 +2153,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>657182</v>
+        <v>657216</v>
       </c>
       <c r="R14" t="n">
-        <v>6571192</v>
+        <v>6571313</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2176,11 +2189,6 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>På nedre delen av torrgran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2208,10 +2216,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112128498</v>
+        <v>112128627</v>
       </c>
       <c r="B15" t="n">
-        <v>90018</v>
+        <v>90221</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2224,21 +2232,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1339</v>
+        <v>3298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2251,10 +2259,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>657134</v>
+        <v>657182</v>
       </c>
       <c r="R15" t="n">
-        <v>6571271</v>
+        <v>6571192</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2291,7 +2299,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>På granlåga. En del årsfärska dödade granar av granbarkborre. Gott om död ved i form av torrträd och lågor av gran.</t>
+          <t>På nedre delen av torrgran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2319,10 +2327,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112128530</v>
+        <v>112128573</v>
       </c>
       <c r="B16" t="n">
-        <v>89802</v>
+        <v>90802</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2331,25 +2339,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5420</v>
+        <v>788</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2362,10 +2370,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>657144</v>
+        <v>657134</v>
       </c>
       <c r="R16" t="n">
-        <v>6571278</v>
+        <v>6571219</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2398,11 +2406,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>På högstubbe av tall.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2430,10 +2433,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112128708</v>
+        <v>112128498</v>
       </c>
       <c r="B17" t="n">
-        <v>90687</v>
+        <v>90152</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2446,33 +2449,25 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5964</v>
+        <v>1339</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2481,10 +2476,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>657216</v>
+        <v>657134</v>
       </c>
       <c r="R17" t="n">
-        <v>6571313</v>
+        <v>6571271</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2517,6 +2512,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>På granlåga. En del årsfärska dödade granar av granbarkborre. Gott om död ved i form av torrträd och lågor av gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">

--- a/artfynd/A 43913-2021.xlsx
+++ b/artfynd/A 43913-2021.xlsx
@@ -1888,7 +1888,7 @@
         <v>112128530</v>
       </c>
       <c r="B12" t="n">
-        <v>89936</v>
+        <v>89950</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1996,10 +1996,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112128551</v>
+        <v>112128708</v>
       </c>
       <c r="B13" t="n">
-        <v>90800</v>
+        <v>90835</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2012,25 +2012,33 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>5964</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
@@ -2039,10 +2047,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>657162</v>
+        <v>657216</v>
       </c>
       <c r="R13" t="n">
-        <v>6571271</v>
+        <v>6571313</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2102,10 +2110,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112128708</v>
+        <v>112128627</v>
       </c>
       <c r="B14" t="n">
-        <v>90821</v>
+        <v>90235</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2118,33 +2126,25 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5964</v>
+        <v>3298</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>657216</v>
+        <v>657182</v>
       </c>
       <c r="R14" t="n">
-        <v>6571313</v>
+        <v>6571192</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2189,6 +2189,11 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På nedre delen av torrgran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2216,10 +2221,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112128627</v>
+        <v>112128573</v>
       </c>
       <c r="B15" t="n">
-        <v>90221</v>
+        <v>90816</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2228,25 +2233,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>788</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2259,10 +2264,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>657182</v>
+        <v>657134</v>
       </c>
       <c r="R15" t="n">
-        <v>6571192</v>
+        <v>6571219</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2295,11 +2300,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>På nedre delen av torrgran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2327,10 +2327,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112128573</v>
+        <v>112128498</v>
       </c>
       <c r="B16" t="n">
-        <v>90802</v>
+        <v>90166</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2339,25 +2339,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>788</v>
+        <v>1339</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2373,7 +2373,7 @@
         <v>657134</v>
       </c>
       <c r="R16" t="n">
-        <v>6571219</v>
+        <v>6571271</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2406,6 +2406,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>På granlåga. En del årsfärska dödade granar av granbarkborre. Gott om död ved i form av torrträd och lågor av gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2433,10 +2438,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112128498</v>
+        <v>112128551</v>
       </c>
       <c r="B17" t="n">
-        <v>90152</v>
+        <v>90814</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2449,21 +2454,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1339</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2476,7 +2481,7 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>657134</v>
+        <v>657162</v>
       </c>
       <c r="R17" t="n">
         <v>6571271</v>
@@ -2512,11 +2517,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>På granlåga. En del årsfärska dödade granar av granbarkborre. Gott om död ved i form av torrträd och lågor av gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">

--- a/artfynd/A 43913-2021.xlsx
+++ b/artfynd/A 43913-2021.xlsx
@@ -1885,10 +1885,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112128530</v>
+        <v>112128573</v>
       </c>
       <c r="B12" t="n">
-        <v>89950</v>
+        <v>90816</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1897,25 +1897,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5420</v>
+        <v>788</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1928,10 +1928,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>657144</v>
+        <v>657134</v>
       </c>
       <c r="R12" t="n">
-        <v>6571278</v>
+        <v>6571219</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1964,11 +1964,6 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På högstubbe av tall.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1996,10 +1991,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112128708</v>
+        <v>112128551</v>
       </c>
       <c r="B13" t="n">
-        <v>90835</v>
+        <v>90814</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2012,33 +2007,25 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5964</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
@@ -2047,10 +2034,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>657216</v>
+        <v>657162</v>
       </c>
       <c r="R13" t="n">
-        <v>6571313</v>
+        <v>6571271</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2110,10 +2097,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112128627</v>
+        <v>112128708</v>
       </c>
       <c r="B14" t="n">
-        <v>90235</v>
+        <v>90835</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2126,25 +2113,33 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3298</v>
+        <v>5964</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2153,10 +2148,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>657182</v>
+        <v>657216</v>
       </c>
       <c r="R14" t="n">
-        <v>6571192</v>
+        <v>6571313</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2189,11 +2184,6 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>På nedre delen av torrgran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2221,10 +2211,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112128573</v>
+        <v>112128627</v>
       </c>
       <c r="B15" t="n">
-        <v>90816</v>
+        <v>90235</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2233,25 +2223,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>788</v>
+        <v>3298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2264,10 +2254,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>657134</v>
+        <v>657182</v>
       </c>
       <c r="R15" t="n">
-        <v>6571219</v>
+        <v>6571192</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2300,6 +2290,11 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>På nedre delen av torrgran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2327,10 +2322,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112128498</v>
+        <v>112128530</v>
       </c>
       <c r="B16" t="n">
-        <v>90166</v>
+        <v>89950</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2343,21 +2338,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1339</v>
+        <v>5420</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2370,10 +2365,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>657134</v>
+        <v>657144</v>
       </c>
       <c r="R16" t="n">
-        <v>6571271</v>
+        <v>6571278</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2410,7 +2405,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>På granlåga. En del årsfärska dödade granar av granbarkborre. Gott om död ved i form av torrträd och lågor av gran.</t>
+          <t>På högstubbe av tall.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2438,10 +2433,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112128551</v>
+        <v>112128498</v>
       </c>
       <c r="B17" t="n">
-        <v>90814</v>
+        <v>90166</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2454,21 +2449,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>1339</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2481,7 +2476,7 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>657162</v>
+        <v>657134</v>
       </c>
       <c r="R17" t="n">
         <v>6571271</v>
@@ -2517,6 +2512,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>På granlåga. En del årsfärska dödade granar av granbarkborre. Gott om död ved i form av torrträd och lågor av gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">

--- a/artfynd/A 43913-2021.xlsx
+++ b/artfynd/A 43913-2021.xlsx
@@ -1885,10 +1885,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112128573</v>
+        <v>112128498</v>
       </c>
       <c r="B12" t="n">
-        <v>90816</v>
+        <v>90166</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1897,25 +1897,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>788</v>
+        <v>1339</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1931,7 +1931,7 @@
         <v>657134</v>
       </c>
       <c r="R12" t="n">
-        <v>6571219</v>
+        <v>6571271</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1964,6 +1964,11 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På granlåga. En del årsfärska dödade granar av granbarkborre. Gott om död ved i form av torrträd och lågor av gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1991,10 +1996,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112128551</v>
+        <v>112128530</v>
       </c>
       <c r="B13" t="n">
-        <v>90814</v>
+        <v>89950</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2007,21 +2012,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>5420</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2034,10 +2039,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>657162</v>
+        <v>657144</v>
       </c>
       <c r="R13" t="n">
-        <v>6571271</v>
+        <v>6571278</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2070,6 +2075,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På högstubbe av tall.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2097,10 +2107,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112128708</v>
+        <v>112128551</v>
       </c>
       <c r="B14" t="n">
-        <v>90835</v>
+        <v>90814</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2113,33 +2123,25 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5964</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2148,10 +2150,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>657216</v>
+        <v>657162</v>
       </c>
       <c r="R14" t="n">
-        <v>6571313</v>
+        <v>6571271</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2211,10 +2213,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112128627</v>
+        <v>112128573</v>
       </c>
       <c r="B15" t="n">
-        <v>90235</v>
+        <v>90816</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2223,25 +2225,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>788</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Banker</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2254,10 +2256,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>657182</v>
+        <v>657134</v>
       </c>
       <c r="R15" t="n">
-        <v>6571192</v>
+        <v>6571219</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2290,11 +2292,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>På nedre delen av torrgran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2322,10 +2319,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112128530</v>
+        <v>112128627</v>
       </c>
       <c r="B16" t="n">
-        <v>89950</v>
+        <v>90235</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2338,21 +2335,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5420</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2365,10 +2362,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>657144</v>
+        <v>657182</v>
       </c>
       <c r="R16" t="n">
-        <v>6571278</v>
+        <v>6571192</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2405,7 +2402,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>På högstubbe av tall.</t>
+          <t>På nedre delen av torrgran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2433,10 +2430,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112128498</v>
+        <v>112128708</v>
       </c>
       <c r="B17" t="n">
-        <v>90166</v>
+        <v>90835</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2449,25 +2446,33 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1339</v>
+        <v>5964</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2476,10 +2481,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>657134</v>
+        <v>657216</v>
       </c>
       <c r="R17" t="n">
-        <v>6571271</v>
+        <v>6571313</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2512,11 +2517,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>På granlåga. En del årsfärska dödade granar av granbarkborre. Gott om död ved i form av torrträd och lågor av gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
